--- a/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p4_data.xlsx
+++ b/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p4_data.xlsx
@@ -648,7 +648,7 @@
         <v>-1</v>
       </c>
       <c r="G11">
-        <v>0.06612990000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.9043396</v>
+        <v>0.09566040000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8611796</v>
+        <v>0.1388204</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8838954999999999</v>
+        <v>0.1161045</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.8634511</v>
+        <v>0.1365489</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.897525</v>
+        <v>0.102475</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.8952535</v>
+        <v>0.1047465</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.07067296000000001</v>
+        <v>0.92932704</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.07294447</v>
+        <v>0.92705553</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04419556</v>
+        <v>0.95580444</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9520426</v>
+        <v>0.0479574</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.913426</v>
+        <v>0.086574</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.04341431</v>
+        <v>0.95658569</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -947,7 +947,7 @@
         <v>-1</v>
       </c>
       <c r="G24">
-        <v>0.9384131</v>
+        <v>0.0615869</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -970,7 +970,7 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>0.8770806</v>
+        <v>0.1229194</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.9497708</v>
+        <v>0.0502292</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1016,7 +1016,7 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>0.9770297</v>
+        <v>0.0229703</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1039,7 +1039,7 @@
         <v>-1</v>
       </c>
       <c r="G28">
-        <v>0.1047468</v>
+        <v>0.8952532</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1062,7 +1062,7 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>0.9179691</v>
+        <v>0.0820309</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.9179688</v>
+        <v>0.0820312</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.1115614</v>
+        <v>0.8884386</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>-1</v>
       </c>
       <c r="G32">
-        <v>0.8816237</v>
+        <v>0.1183763</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.18198</v>
+        <v>0.81802</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.8611796</v>
+        <v>0.1388204</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1200,7 +1200,7 @@
         <v>-1</v>
       </c>
       <c r="G35">
-        <v>0.8997962</v>
+        <v>0.1002038</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.833921</v>
+        <v>0.166079</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.08884583</v>
+        <v>0.91115417</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.08430275</v>
+        <v>0.91569725</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>0.09793188999999999</v>
+        <v>0.90206811</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>-1</v>
       </c>
       <c r="G40">
-        <v>0.9202406</v>
+        <v>0.07975939999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>0.02524173</v>
+        <v>0.97475827</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>-1</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>-1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.07294481999999999</v>
+        <v>0.92705518</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.9225120999999999</v>
+        <v>0.0774879</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>0.05931533</v>
+        <v>0.94068467</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>0.9293271</v>
+        <v>0.0706729</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1522,7 +1522,7 @@
         <v>-1</v>
       </c>
       <c r="G49">
-        <v>0.9929308</v>
+        <v>0.0070692</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1545,7 +1545,7 @@
         <v>-1</v>
       </c>
       <c r="G50">
-        <v>0.934651</v>
+        <v>0.065349</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.9156976</v>
+        <v>0.0843024</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1591,7 +1591,7 @@
         <v>-1</v>
       </c>
       <c r="G52">
-        <v>0.8134768999999999</v>
+        <v>0.1865231</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1614,7 +1614,7 @@
         <v>-1</v>
       </c>
       <c r="G53">
-        <v>0.002526184</v>
+        <v>0.997473816</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.04114274</v>
+        <v>0.95885726</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1660,7 +1660,7 @@
         <v>-1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0.9974738</v>
+        <v>0.0025262</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0.0365997</v>
+        <v>0.9634003</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.03432784</v>
+        <v>0.96567216</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.03659974</v>
+        <v>0.96340026</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.8157485</v>
+        <v>0.1842515</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1798,7 +1798,7 @@
         <v>-1</v>
       </c>
       <c r="G61">
-        <v>0.8407356</v>
+        <v>0.1592644</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1821,7 +1821,7 @@
         <v>-1</v>
       </c>
       <c r="G62">
-        <v>0.9066111</v>
+        <v>0.0933889</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>0.945228</v>
+        <v>0.054772</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1890,7 +1890,7 @@
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>0.9793013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.790761</v>
+        <v>0.209239</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.1206478</v>
+        <v>0.8793522</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>-1</v>
       </c>
       <c r="G68">
-        <v>0.9543142</v>
+        <v>0.0456858</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>0.0138841</v>
+        <v>0.9861159</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.849822</v>
+        <v>0.150178</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0.8361925</v>
+        <v>0.1638075</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>0.8937629</v>
+        <v>0.1062371</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>-1</v>
       </c>
       <c r="G73">
-        <v>0.8679945</v>
+        <v>0.1320055</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.886167</v>
+        <v>0.113833</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>-1</v>
       </c>
       <c r="G75">
-        <v>0.05704379</v>
+        <v>0.94295621</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2143,7 +2143,7 @@
         <v>-1</v>
       </c>
       <c r="G76">
-        <v>0.1456349</v>
+        <v>0.8543651</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.8793522</v>
+        <v>0.1206478</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>0.08430277999999999</v>
+        <v>0.91569722</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.9202406</v>
+        <v>0.07975939999999999</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2235,7 +2235,7 @@
         <v>-1</v>
       </c>
       <c r="G80">
-        <v>0.09793194</v>
+        <v>0.9020680599999999</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0.9066111</v>
+        <v>0.0933889</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2281,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.08657431</v>
+        <v>0.91342569</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>0.9043396</v>
+        <v>0.09566040000000001</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2327,7 +2327,7 @@
         <v>-1</v>
       </c>
       <c r="G84">
-        <v>0.8997965</v>
+        <v>0.1002035</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2350,7 +2350,7 @@
         <v>-1</v>
       </c>
       <c r="G85">
-        <v>0.8596894</v>
+        <v>0.1403106</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2373,7 +2373,7 @@
         <v>-1</v>
       </c>
       <c r="G86">
-        <v>0.09111701</v>
+        <v>0.9088829899999999</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.802119</v>
+        <v>0.197881</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.07067328</v>
+        <v>0.9293267200000001</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.897525</v>
+        <v>0.102475</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>0.8793522</v>
+        <v>0.1206478</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.838464</v>
+        <v>0.161536</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2511,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>0.03659936</v>
+        <v>0.96340064</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0.9656718</v>
+        <v>0.0343282</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2557,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>0.9861159</v>
+        <v>0.0138841</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.7657737999999999</v>
+        <v>0.2342262</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.2274116</v>
+        <v>0.7725884</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>0.881624</v>
+        <v>0.118376</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>0.1032562</v>
+        <v>0.8967438</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>0.1638079</v>
+        <v>0.8361921</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>0.9247836</v>
+        <v>0.0752164</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2718,7 +2718,7 @@
         <v>-1</v>
       </c>
       <c r="G101">
-        <v>0.886167</v>
+        <v>0.113833</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0.8952532</v>
+        <v>0.1047468</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="G103">
-        <v>0.881624</v>
+        <v>0.118376</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2787,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>0.8838954999999999</v>
+        <v>0.1161045</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2810,7 +2810,7 @@
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>0.07067329</v>
+        <v>0.92932671</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="G107">
-        <v>0.8770806</v>
+        <v>0.1229194</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0.1819801</v>
+        <v>0.8180199</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>0.8430071</v>
+        <v>0.1569929</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2925,7 +2925,7 @@
         <v>-1</v>
       </c>
       <c r="G110">
-        <v>0.9043396</v>
+        <v>0.09566040000000001</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2948,7 +2948,7 @@
         <v>-1</v>
       </c>
       <c r="G111">
-        <v>0.833921</v>
+        <v>0.166079</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.8361925</v>
+        <v>0.1638075</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G113">
-        <v>0.8452789000000001</v>
+        <v>0.1547211</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3017,7 +3017,7 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>0.8430071</v>
+        <v>0.1569929</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.7112563</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>0.08203088</v>
+        <v>0.91796912</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>0.9338701</v>
+        <v>0.06612990000000001</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>0.1728936</v>
+        <v>0.8271064</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3132,13 +3132,16 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>0.9270552</v>
+        <v>0.0729448</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
         <v>4</v>
       </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
       <c r="C120">
         <v>9</v>
       </c>
@@ -3147,12 +3150,21 @@
       </c>
       <c r="E120">
         <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>0.06612990000000001</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
         <v>4</v>
       </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
       <c r="C121">
         <v>-15</v>
       </c>
@@ -3162,11 +3174,20 @@
       <c r="E121">
         <v>0.5</v>
       </c>
+      <c r="F121">
+        <v>-1</v>
+      </c>
+      <c r="G121">
+        <v>0.1047468</v>
+      </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
         <v>4</v>
       </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
       <c r="C122">
         <v>-15</v>
       </c>
@@ -3176,11 +3197,20 @@
       <c r="E122">
         <v>0.75</v>
       </c>
+      <c r="F122">
+        <v>-1</v>
+      </c>
+      <c r="G122">
+        <v>0.0888458</v>
+      </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
         <v>4</v>
       </c>
+      <c r="B123">
+        <v>122</v>
+      </c>
       <c r="C123">
         <v>9</v>
       </c>
@@ -3188,6 +3218,12 @@
         <v>0.1</v>
       </c>
       <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
         <v>1</v>
       </c>
     </row>
@@ -3195,6 +3231,9 @@
       <c r="A124">
         <v>4</v>
       </c>
+      <c r="B124">
+        <v>123</v>
+      </c>
       <c r="C124">
         <v>9</v>
       </c>
@@ -3204,11 +3243,20 @@
       <c r="E124">
         <v>0.5</v>
       </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>0.07975939999999999</v>
+      </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
         <v>4</v>
       </c>
+      <c r="B125">
+        <v>124</v>
+      </c>
       <c r="C125">
         <v>9</v>
       </c>
@@ -3218,11 +3266,20 @@
       <c r="E125">
         <v>0.25</v>
       </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
         <v>4</v>
       </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
       <c r="C126">
         <v>9</v>
       </c>
@@ -3232,11 +3289,20 @@
       <c r="E126">
         <v>0.5</v>
       </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0.1638075</v>
+      </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
         <v>4</v>
       </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
       <c r="C127">
         <v>9</v>
       </c>
@@ -3245,12 +3311,21 @@
       </c>
       <c r="E127">
         <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0.0843028</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
         <v>4</v>
       </c>
+      <c r="B128">
+        <v>127</v>
+      </c>
       <c r="C128">
         <v>-15</v>
       </c>
@@ -3260,11 +3335,20 @@
       <c r="E128">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>-1</v>
+      </c>
+      <c r="G128">
+        <v>0.0502289</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>4</v>
       </c>
+      <c r="B129">
+        <v>128</v>
+      </c>
       <c r="C129">
         <v>-15</v>
       </c>
@@ -3274,10 +3358,19 @@
       <c r="E129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>0.06612990000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>4</v>
+      </c>
+      <c r="B130">
+        <v>129</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3288,10 +3381,19 @@
       <c r="E130">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0.2501271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>4</v>
+      </c>
+      <c r="B131">
+        <v>130</v>
       </c>
       <c r="C131">
         <v>-15</v>
@@ -3302,11 +3404,20 @@
       <c r="E131">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>-1</v>
+      </c>
+      <c r="G131">
+        <v>0.0752164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>4</v>
       </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
       <c r="C132">
         <v>0</v>
       </c>
@@ -3316,10 +3427,19 @@
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>4</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
       </c>
       <c r="C133">
         <v>9</v>
@@ -3330,11 +3450,20 @@
       <c r="E133">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>4</v>
       </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
       <c r="C134">
         <v>0</v>
       </c>
@@ -3344,10 +3473,19 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>4</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3358,11 +3496,20 @@
       <c r="E135">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0.1547214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>4</v>
       </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
       <c r="C136">
         <v>0</v>
       </c>
@@ -3372,10 +3519,19 @@
       <c r="E136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0.8679945</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>4</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
       </c>
       <c r="C137">
         <v>-15</v>
@@ -3386,11 +3542,20 @@
       <c r="E137">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>-1</v>
+      </c>
+      <c r="G137">
+        <v>0.1251909</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>4</v>
       </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
       <c r="C138">
         <v>-15</v>
       </c>
@@ -3400,11 +3565,20 @@
       <c r="E138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>-1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>4</v>
       </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
       <c r="C139">
         <v>0</v>
       </c>
@@ -3414,10 +3588,19 @@
       <c r="E139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>4</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
       </c>
       <c r="C140">
         <v>9</v>
@@ -3428,10 +3611,19 @@
       <c r="E140">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>4</v>
+      </c>
+      <c r="B141">
+        <v>140</v>
       </c>
       <c r="C141">
         <v>-15</v>
@@ -3442,11 +3634,20 @@
       <c r="E141">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>-1</v>
+      </c>
+      <c r="G141">
+        <v>0.0615869</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>4</v>
       </c>
+      <c r="B142">
+        <v>141</v>
+      </c>
       <c r="C142">
         <v>-15</v>
       </c>
@@ -3456,10 +3657,19 @@
       <c r="E142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>-1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>4</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
       </c>
       <c r="C143">
         <v>-15</v>
@@ -3470,11 +3680,20 @@
       <c r="E143">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0.845279</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>4</v>
       </c>
+      <c r="B144">
+        <v>143</v>
+      </c>
       <c r="C144">
         <v>9</v>
       </c>
@@ -3484,10 +3703,19 @@
       <c r="E144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0.865723</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>4</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3498,11 +3726,20 @@
       <c r="E145">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0.1388204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>4</v>
       </c>
+      <c r="B146">
+        <v>145</v>
+      </c>
       <c r="C146">
         <v>9</v>
       </c>
@@ -3512,11 +3749,20 @@
       <c r="E146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>4</v>
       </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
       <c r="C147">
         <v>9</v>
       </c>
@@ -3526,10 +3772,19 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0.9202406</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>4</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
       </c>
       <c r="C148">
         <v>9</v>
@@ -3540,11 +3795,20 @@
       <c r="E148">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0.059315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>4</v>
       </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
       <c r="C149">
         <v>0</v>
       </c>
@@ -3554,10 +3818,19 @@
       <c r="E149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0.8952532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>4</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3568,11 +3841,20 @@
       <c r="E150">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0.08657430000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>4</v>
       </c>
+      <c r="B151">
+        <v>150</v>
+      </c>
       <c r="C151">
         <v>9</v>
       </c>
@@ -3582,10 +3864,19 @@
       <c r="E151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>0.150178</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>4</v>
+      </c>
+      <c r="B152">
+        <v>151</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3596,11 +3887,20 @@
       <c r="E152">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0.129734</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>4</v>
       </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
       <c r="C153">
         <v>9</v>
       </c>
@@ -3610,10 +3910,19 @@
       <c r="E153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>0.0911173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>4</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3624,10 +3933,19 @@
       <c r="E154">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0.1524499</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>4</v>
+      </c>
+      <c r="B155">
+        <v>154</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3638,10 +3956,19 @@
       <c r="E155">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0.96567179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>4</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
       </c>
       <c r="C156">
         <v>-15</v>
@@ -3652,11 +3979,20 @@
       <c r="E156">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>-1</v>
+      </c>
+      <c r="G156">
+        <v>0.1206475</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>4</v>
       </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
       <c r="C157">
         <v>0</v>
       </c>
@@ -3666,10 +4002,19 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0.8520934999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>4</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
       </c>
       <c r="C158">
         <v>9</v>
@@ -3680,10 +4025,19 @@
       <c r="E158">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>0.1910665</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>4</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3694,10 +4048,19 @@
       <c r="E159">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0.854365</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>4</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -3708,10 +4071,19 @@
       <c r="E160">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0.0502289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>4</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3722,10 +4094,19 @@
       <c r="E161">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0.1047468</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>4</v>
+      </c>
+      <c r="B162">
+        <v>161</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3736,10 +4117,19 @@
       <c r="E162">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0.1342773</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>4</v>
+      </c>
+      <c r="B163">
+        <v>162</v>
       </c>
       <c r="C163">
         <v>-15</v>
@@ -3750,11 +4140,20 @@
       <c r="E163">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>-1</v>
+      </c>
+      <c r="G163">
+        <v>0.09566040000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>4</v>
       </c>
+      <c r="B164">
+        <v>163</v>
+      </c>
       <c r="C164">
         <v>-15</v>
       </c>
@@ -3764,11 +4163,20 @@
       <c r="E164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>-1</v>
+      </c>
+      <c r="G164">
+        <v>0.1456349</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>4</v>
       </c>
+      <c r="B165">
+        <v>164</v>
+      </c>
       <c r="C165">
         <v>-15</v>
       </c>
@@ -3778,11 +4186,20 @@
       <c r="E165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>-1</v>
+      </c>
+      <c r="G165">
+        <v>0.98838771</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>4</v>
       </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
       <c r="C166">
         <v>9</v>
       </c>
@@ -3792,10 +4209,19 @@
       <c r="E166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>0.0843024</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>4</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
       </c>
       <c r="C167">
         <v>-15</v>
@@ -3806,11 +4232,20 @@
       <c r="E167">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>-1</v>
+      </c>
+      <c r="G167">
+        <v>0.0979319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>4</v>
       </c>
+      <c r="B168">
+        <v>167</v>
+      </c>
       <c r="C168">
         <v>0</v>
       </c>
@@ -3820,10 +4255,19 @@
       <c r="E168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0.1274624</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>4</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
       </c>
       <c r="C169">
         <v>9</v>
@@ -3834,10 +4278,19 @@
       <c r="E169">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>0.1569926</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>4</v>
+      </c>
+      <c r="B170">
+        <v>169</v>
       </c>
       <c r="C170">
         <v>9</v>
@@ -3848,11 +4301,20 @@
       <c r="E170">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0.1706221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>4</v>
       </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
       <c r="C171">
         <v>0</v>
       </c>
@@ -3862,10 +4324,19 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0.94068472</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>4</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3876,10 +4347,19 @@
       <c r="E172">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0.9361416299999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>4</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3890,11 +4370,20 @@
       <c r="E173">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0.1547214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>4</v>
       </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
       <c r="C174">
         <v>0</v>
       </c>
@@ -3904,10 +4393,19 @@
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0.1842515</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>4</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
       </c>
       <c r="C175">
         <v>-15</v>
@@ -3918,10 +4416,19 @@
       <c r="E175">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>-1</v>
+      </c>
+      <c r="G175">
+        <v>0.102475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>4</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3932,10 +4439,19 @@
       <c r="E176">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0.93614161</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>4</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
       </c>
       <c r="C177">
         <v>-15</v>
@@ -3946,10 +4462,19 @@
       <c r="E177">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>-1</v>
+      </c>
+      <c r="G177">
+        <v>0.1002035</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>4</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
       </c>
       <c r="C178">
         <v>-15</v>
@@ -3960,10 +4485,19 @@
       <c r="E178">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0.9202406</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>4</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
       </c>
       <c r="C179">
         <v>9</v>
@@ -3974,10 +4508,19 @@
       <c r="E179">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>0.93387013</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>4</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3988,10 +4531,19 @@
       <c r="E180">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>4</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4001,6 +4553,12 @@
       </c>
       <c r="E181">
         <v>0.75</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
